--- a/500all/speech_level/speeches_CHRG-114hhrg20150.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20150.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. Good morning and I would like to call our hearing to order this morning. And I would like to recognize myself for a 5 minute opening statement.    First of all, I want to thank all of our witnesses today. We have two panels of witnesses and I certainly want to thank Administrator Dominguez for her constructive comments and her commitment to work with our committee.    This morning we are going to be examining a discussion draft of a bill that reauthorizes the Pipeline and Hazardous Materials Safety Administration pipeline safety program. This discussion draft contains targeted mandates for PHMSA to increase transparency and accountability, complete overview regulations, and improve safety.    I might say that working with the Transportation and Infrastructure Committee, the House successfully ushered through the Pipeline Safety, Regulatory Certainty, and Job Creation Act of 2011 on a bipartisan basis. Now it is time to update that law. With today's changing energy landscape and the need to modernize infrastructure greater than ever, we are looking forward to a productive discussion on our draft bill with a goal of reporting to the full House the legislation by this spring for its consideration. Our Senate colleagues, I might say, on the Commerce, Science and Transportation Committee reported S. 2276 the SAFE PIPES Act on December 9, 2015, and we believe that a strong, bipartisan, bicameral effort will yield a public law we can all be proud of.    I might say that I want to point out the unfinished business from the last reauthorization. The 2011 pipeline safety law included 42 mandates on PHMSA and 16 of them remain incomplete, well beyond the statutorily-imposed deadlines. So our discussion draft will require the Administrator to prioritize overdue regulations ahead of new rulemakings and keep us updated on that progress.    So I really look forward to our discussion this morning. And at this point, I would like to yield the balance of my time to the gentleman from Texas, Mr. Olson.</t>
   </si>
   <si>
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. Thank you, Mr. Chairman. I will be very brief. Pipeline safety is bipartisan. I am a pro-energy, pro-growth congressman from the pro-growth, pro-energy city of Houston, Texas. But growth only happens if the people trust us, if we get safety right.    Industry does its best but government must do its part, too. Sensible rules need to be written and effectively enforced. Mistakes cost lives. Inaction costs lives. And that is why I would like to thank my friend and chairman for holding this hearing on a draft bill to reauthorize the Pipeline Safety Act. It is an important step forward. This bill includes some critical language on having safety inspectors that my good friend and fellow Texan, Gene Green, and I wrote with another Texan, Brian Babin and Janice Hahn, a Californian, who went to college in Amarillo and Abilene, Texas.    This process for having inspectors at the federal level is slow and difficult. Let us cut the red tape, put inspectors on the ground. Let us get safety right. I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rush. I want to thank you, Mr. Chairman, for holding this important and timely hearing today on pipeline safety reauthorization. I want to also welcome Administrator Dominguez to the subcommittee and thank her for being here.    Unfortunately, Mr. Chairman, it seems that every time we have a hearing on pipeline safety, we do so with a backdrop of either an ongoing spill or in the immediate aftermath of one. Of course, the most recent high-profile incident involved in 2015 the Aliso Canyon natural gas storage field in Los Angeles where it is estimated that over 90,000 metric tons of methane escaped into the atmosphere and thousands of families have been impacted.    Other high-profile leaks include the May 2015 crude oil spill from a pipeline operated by Plains All American Pipeline, along the Santa Barbara County coastline. Before that, there was a July 2010 Enbridge spill near Marshall, Michigan. And later, that same year in September, there was also the Pacific Gas and Electric Company natural gas explosion in San Bruno in the suburbs of San Francisco just to name a few.    Mr. Chairman, we all know that pipelines are necessary and we must continue to build them to meet the energy needs of our nation. However, Mr. Chairman, we also know that many of the current pipelines are aging and they must be replaced, which may lead to additional problems if we keep kicking the proverbial can down the road.    Mr. Chairman, we must ensure the American public that this subcommittee or jurisdiction is doing everything within our authority to ensure that more current and future pipelines are as safe as possible.    In the past, the issue of pipeline safety has been one that we are working on in a bipartisan manner. And it is my hope and my expectation that we will continue to do so in the same tradition as we address this important issue in this current Congress.    So again, Mr. Chairman, I applaud you and with that I yield the balance of my time to my wonderful colleague from great State of California, Ms. Capps.    Ms. Capps. Thank you. I thank my ranking member for yielding and thank you Chairman Whitfield and Ranking Member Rush for holding this hearing, Chairman Upton and Ranking Member Pallone, for ensuring we consider pipeline safety in this committee.    Welcome, Administrator Dominguez. Thank you for visiting my district recently.    On May 19th, the Plains Pipeline 901 ruptured in my district, dumping over 120,000 gallons of crude oil along California's Gaviota Coast and into the ocean. This incident not only affected public health and the environment, but also our local economy that is strongly reliant on tourism, as well as the fishing and shrimping industries. While the May spill happened in my community, nearly all of us have miles, hundreds of miles of pipeline running through our districts, allowing for the transport of natural gas and hazardous liquids, like crude oil, across our country.    So today's topic, pipeline safety, is incredibly important to each of us. That is why it is critical that our committee come together as it historically has to produce a strong bipartisan pipeline safety bill that builds on the lessons learned in the Plains spill, as well as incidents that have occurred across the country. I am hopeful we can again make this a strong bipartisan effort.    Unfortunately, the draft language as currently written is inadequate in providing the much-needed updates to pipeline safety legislation to ensure the protection of our public health and the environment.    Whether we are discussing the pipeline rupture in my district last May or the Aliso Canyon natural gas storage leak just to the south of my district, these incidents occur all too frequently. And each time a failure occurs, as it recently did in Chairman Upton's and Ranking Member Pallone's and my district, the need to act becomes even more clear. It is critical that we take the steps and the lessons from these incidents and use them to strengthen our pipeline safety infrastructure. For example, the spill in my district highlighted the inadequacies of the in-line inspection process currently used by PHMSA. Even with the shortened inspection interval, the Plains pipeline failed spilling crude across the landscape into the ocean.    So we have many results of this survey and PHMSA has the authority and the resources to require an appropriate time line for inspections for every single pipeline in our country. We must ensure that the results from these surveys are made available to PHMSA and the public in a timely manner. We must strengthen the high consequence areas designation, something this draft falls short on. And there is room to strengthen these provisions in the draft before us. We must.    We have this opportunity to improve the existing legislative requirements for pipeline safety. I ask that the chairman work closely with all of us to improve this bill. Thank you. And I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Thank you, Mr. Chairman. And let me just respond to my friend, Ms. Capps. I look forward to working with you and your staff and we are continuing to do that.    Pipeline safety is something that I take very seriously. And it has long been a priority for me as well as this committee. Spills, as we know, can be very disastrous and it is imperative that our laws stay up to date and work to minimize potential damage as well as try to prevent them from happening in the first place.    In the wake of the serious oil spill that affected the Kalamazoo River, just outside of my district, I worked on a strong bipartisan basis with my friend, John Dingell, in conjunction with our friends on the Transportation and Infrastructure Committee to enact the Pipeline Safety, Regulatory Certainty, and Job Creation Act of 2011. While the legislation's name might be hard to remember, its positive effects are not. This bipartisan bill, law, helps prevent pipeline failures, strengthens safety standards, and holds those responsible for pipeline accidents accountable.    We cannot achieve the intended objectives of the Pipeline Safety Act until it has been fully implemented. The hearing last July revealed that PHMSA has failed to implement many of the mandates required by the law under the Pipeline Safety Act of 2011. Today, over 4 years after enactment, at least 16 important safety regulations remain overdue. Rulemakings related to leak detection and emergency shutoff valves, public education and awareness, accident and incident notification are among some of the mandates PHMSA has failed to implement which would greatly improve pipeline safety.    The discussion draft before us today, Pipeline Safety Act of 2016, is a starting point in reauthorizing the 2011 law. The draft seeks to increase regulatory transparency, speed the completion of overdue safety regs, tighten standards for underground natural gas storage facilities and underwater oil pipelines and reauthorizes PHMSA's pipeline safety programs. Taken together, I believe that the provisions included within the draft will go a long way towards improving pipeline safety, increasing the public confidence in our nation's energy infrastructure.    And as we learned when examining the Kalamazoo spill, we needed to do a lot better job to improve pipeline safety. I think that we have made some progress with this draft and the draft bill is certainly an important step forward.    One of the things that I initiated is a new provision requiring annual inspections that are fully transparent for some deep water crossings of existing pipelines. That is, in fact, Section 12 of the discussion draft would require annual inspections for deep underwater pipelines. A change in the law would mean that lines that cross under the Straits of Mackinac between the Upper and Lower Peninsula of Michigan would be required to be inspected every year, rather than every 5 years and those results made public.    Though I may not be able to stay for the entire hearing this morning, I would appreciate your comments, maybe even in your opening statement, as to the support, hopeful support, of that provision as part of this bill.    Feedback provided by our witnesses today will place us on a path towards enacting a bipartisan and meaningful reauthorization bill. I look forward to continuing with working with our colleagues on the Transportation and Infrastructure Committee, as well as our colleagues in the Senate, to get this bill done. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -97,18 +85,12 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Chairman Whitfield and Ranking Member Rush for holding this hearing on pipeline safety reauthorization and the discussion draft released by the committee last Friday. While I believe the draft could and should be much stronger, it is a good start and includes some important provisions on underground gas storage, pipeline safety, Technical Assistance Grants, and mandamus.    The vast network of transmission pipelines in this country are essentially ``out of sight, out of mind'' for most Americans. But when something goes wrong, these facilities can make themselves known in devastating and sometimes deadly ways. Over the last year, we have witnessed both 100,000 gallon crude oil spill into pristine coastline in Representative Capps' district in California and a massive gas storage facility leak in Los Angeles. The leak forced thousands of people from their homes for long periods of time and released 96,000 metric tons of methane into the atmosphere, the climate-damaging equivalent of burning 900 million gallons of gasoline.    My own district experienced the devastation of a pipeline failure in 1994 when a pipeline exploded in Edison, New Jersey, destroying about 300 homes. Yet, two decades and four reauthorizations later, the Department of Transportation's Pipeline and Hazardous Materials Safety Administration, or PHMSA, has made little progress in my opinion in securing the safety of our nation's pipeline infrastructure.    I hope that will soon change and I welcome the new Administrator Dominguez who I believe understands these concerns. It appears you and Secretary Fox are determined to bring positive change to this agency and I sincerely hope you succeed in your efforts to ensure the safety of our pipeline system. We look forward to helping you in any way that we can.    The discussion draft before us is a modest, but balanced starting point for that effort. The draft contains language to address regulation of underground gas storage facilities like Aliso Canyon in California that leaked methane for 5 months until just a week ago. However, I don't believe that it goes far enough and I hope the committee will consider adopting the stronger language of H.R. 4578, authored by Representative Brad Sherman, who represents the residents around this facility and lives in the neighborhood that experienced the most direct adverse effects of the leak.    I am encouraged that this draft includes language authored by Mr. Green that will allow us to finally begin a conversation about the need for PHMSA to have a direct power of authority. It is also critical that we provide the necessary tools--including funding--so the agency can attract the best and brightest inspectors and safety experts in order to carry out its responsibilities. We should also give the agency carefully crafted emergency order authority to ensure that PHMSA can address situations and facilities that pose a threat to life, property, and the environment. And we should remove barriers to PHMSA's success, such as the multiple layers of overly prescriptive risk assessment and cost benefit analysis that have hampered the agency's efforts to improve safety.    Finally, I am pleased that the draft contains a provision restoring the ability of the public to compel PHMSA to perform its nondiscretionary obligations. This provision is necessary to address an incorrect reading of the 2002 reauthorization by the Ninth Circuit. While I have great respect for the courts, it is clear to me that the Ninth Circuit's reading of the Pipeline Safety Act with regard to mandamus was just plain wrong. The law always contemplated mandamus-type suits to ensure PHMSA does its job. The mandamus language added to the statute in 2002, as part of the whistleblower protection provision, was always intended to be in addition to what was already in the statute not in lieu of the existing language as the court incorrectly stated. At our hearing last year, we all voiced frustration at PHMSA's inaction on a number of fronts. While I know Administrator Dominguez is trying to change this situation, it is still important for the public to have the ability to access the courts to ensure PHMSA is keeping our pipeline system safe.    And while I believe the discussion draft could be stronger, it is important to know that the last three pipeline safety and reauthorizations were truly bipartisan efforts that moved our nation forward on safety. Our committee has always produced the best and strongest pipeline safety legislation and I look forward to continuing to work with Chairman Upton, Chairman Whitfield, Ranking Member Rush, Representative Capps, and colleagues on both sides of the aisle to produce truly meaningful legislation that protects lives, property, and the environment while providing more certainty and reducing unnecessary burdens on industry.    So thank you again, Mr. Chairman. I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Mr. Pallone yields back the balance of his time, so that concludes the opening statements.    And I would like to introduce our only witness on Panel 1 this morning and that the Honorable Marie Therese Dominguez, who is the Administrator for the Pipeline and Hazardous Material Safety Administration at the U.S. Department of Transportation. She has had an illustrious career. She was the Assistant Secretary for Civil Works over at the Army Corps of Engineers, as well as other positions. We are delighted that you are here. We look forward to your testimony and the opportunity to ask questions. So you are recognized for 5 minutes, Madam Administrator.</t>
   </si>
   <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dominguez. Thank you, sir. Good morning. Chairmen Upton, Whitfield, Ranking Members Pallone and Rush, and members of the subcommittee, thank you for inviting me to testify today on the reauthorization of the U.S. Department of Transportation's Pipeline and Hazardous Materials Safety Administration's pipeline safety program.    PHMSA operates in a dynamic and challenging atmosphere. The demand for our work has increased as has the complexity and scope of our mission and responsibilities. The development of new energy resources, advancements in technology, and the use of hazardous materials in everyday products impact transportation safety.    Recent incidents and increased public awareness and sensitivity to safety hazards and environmental consequences have resulted in increased scrutiny of the agency and it demands that we become proactive, innovative, and forward-looking in all that we do.    Addressing the mandates in the Pipeline Safety Act of 2011 is a priority of PHMSA. The Act included 42 new congressional mandates to advance PHMSA's safety mission and we have completed 26 of those mandates to date.    Since I was appointed last summer, we have made progress in addressing four outstanding rulemakings, including publishing a final rule on pipeline damage prevention programs and proposed rulemakings on expanding the use of excess flow valves in distribution pipelines, as well as operator qualification, cost recovery, and accident notification, and a significant rule addressing safety of hazardous liquid pipelines.    We are currently and actually, I just got news this morning, that OMB has completed its review and we are planning on publishing within the next couple of weeks gas transmission, the gas transmission rule which has been outstanding.    Congress has made investments in PHMSA, providing 100 new positions for the pipeline safety program in the last year. And we have filled over 91 percent of these positions.    Moving forward, we must continue to utilize the investments Congress has provided wisely. Over the past 6 months, I have worked to better understand PHMSA's strengths, capability gaps, and areas for improvement. We have undertaken an organizational assessment that evaluated the agency's structure and processes. This assessment provided PHMSA's leadership team deeper insight into an organization where safety is a personal value for all of our talented and dedicated employees. And it also highlighted critical investment areas.    As a result, PHMSA has updated its strategic framework, recognizing the need to improve our capacity to leverage data and economic analysis, to promote continuous improvement in safety performance through the establishment of safety-management systems, both within the agency and across the industry, and by creating a division that will support consistency in mission execution. This new framework called PHMSA 2021 was directly informed by PHMSA employees and will allow us to be more predictive, consistent, and responsive as we fulfill our mission in protecting people and the environment by advancing the safe transportation of energy and other hazardous materials that are essential to the daily lives of all Americans.    PHMSA 2021 will allow us to better prioritize our work and be proactive in informing, planning, and execution. It will also allow us to be more predictive in our efforts to mitigate future safety issues and to implement data-driven, risk-based inspections, leading our regulated communities in a direction that powers our economy, cultivates innovation, and prioritizes safety.    Thank you for continuing to invest in PHMSA. I look forward to continuing to work with the Congress to reauthorize PHMSA's pipeline safety program and I would be pleased to answer any questions.</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. I thank the chairman. We are a long way from New Jersey. But we have had three high-profile failures in California over the last several years, so my first question, Administrator Dominguez, is do you feel that the states should have the option of requiring measures like shut-off valves, pressure monitors, testing of down-hole devices, if the federal regulators fail to do so?</t>
   </si>
   <si>
@@ -280,9 +259,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Thank you, Mr. Chairman, and Administrator, thanks very much for being here today.    The recently proposed rulemaking addresses hazardous liquid pipeline shows some incremental progress to address safety. However, there are overdue regulations and I think you said that of the 42 you have addressed 26 and we have 16 to go. But when you are looking at some of these overdue regulations relating to leak detection and emergency shutoff valves, integrity management of natural gas pipelines, public education and awareness efforts, and accident and incident notification, do you know when we can expect some of these rules to be published?</t>
   </si>
   <si>
@@ -373,9 +349,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    Ms. Dominguez, since the law was passed in 2011, 5 years ago, everything I have read has indicated that the rate of accidents, ruptures, leaks, explosions, has not decreased. Do you have something to the contrary over the last 5 years of whether we are making progress?</t>
   </si>
   <si>
@@ -415,9 +388,6 @@
     <t>400114</t>
   </si>
   <si>
-    <t>Michael F. Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle. Thank you, Mr. Chairman, and I would like to thank you for holding this hearing today and to thank our witnesses for testifying.    I am glad we are considering this important reauthorization legislation and I think the discussion draft under consideration represents a good first step in the process.    Administrator Dominguez, I am concerned that PHMSA is still far from completing mandates instituted under the Pipeline Safety Act of 2011. Overdue regulations include those related to leak detection and emergency shutoff valves, as well as public education and awareness efforts.    What are the biggest challenges facing you right now in getting these completed?</t>
   </si>
   <si>
@@ -451,9 +421,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Well, thank you very much, Mr. Chairman. And thank you, Administrator Dominguez, for joining us today.    Section 11 requires that PHMSA issue new regulations for underground natural gas storage facilities. And the recent incident at an underground natural gas storage facility in California certainly highlights the importance of this requirement. So does PHMSA support this provision in Section 11?</t>
   </si>
   <si>
@@ -541,9 +508,6 @@
     <t>412209</t>
   </si>
   <si>
-    <t>David Loebsack</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loebsack. Thank you, Mr. Chair. Thank you for being here, Administrator Dominguez, and taking the time to testify. This has been a pretty enlightening hearing for me. We have 99 counties in Iowa and we have got pipelines everywhere just like everyone up here and safety, obviously, is the biggest concern.    As I read your testimony and as I hear your responses and what folks are saying here as well, and again, I am just trying to learn what you folks do exactly, what your oversight role is and all the rest.    Correct me if I am wrong, but it seems that a lot of what you do is after the fact, after pipelines have been put in the ground, after they have been built. Is that the case?</t>
   </si>
   <si>
@@ -613,9 +577,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman, and thank you for holding this meeting.    Ma'am, we do appreciate you being here. I know you are fairly new and you are trying to get your head wrapped around it. And I commend you for what you are trying to do. Unfortunately, what we have seen as PHMSA has got a lot of concerns from Congress right now and the way that you are spending money and the grant programs that they are going to. And so that is one of the questions I have.    To the Technical Assistance Grants program run by your agency, it seems to be a tremendous help providing additional training and education on training pipeline safety issues. Unfortunately, I am increasingly concerned that some of these taxpayer dollars are being awarded to groups that publicly oppose new pipeline infrastructure which was not the intent of Congress. With Congress looking to reauthorize the program, can you assure us that you will provide the oversight necessary to ensure these grants are being executed as Congress intended?</t>
   </si>
   <si>
@@ -679,9 +640,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. And Administrator Dominguez, welcome. Thank you for your leadership.    As you may know, my district which is in the Capital District region in Upstate New York, has become a hub for energy transportation in recent years, seeing a tremendous boom in crude by rail shipments.    Can you provide an update on the crude by rail spill response plan rulemaking?</t>
   </si>
   <si>
@@ -763,9 +721,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman. And thank you for being here with us today. I want to follow up on the line of questioning from my colleague, Mr. Mullin, talking about--and I was pleased to hear you talk about the importance of the cooperation with states, but my question is if states are so vital to PHMSA's pipeline safety program, why did PHMSA announce that it intended to rescind existing state-interstate agreements and disallow additional states to become interstate agents?</t>
   </si>
   <si>
@@ -808,9 +763,6 @@
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman. Mr. Doyle kind of hit on this question earlier, but your agency still needs to fulfill 16 of the 42 mandates from the 2011 Pipeline Safety Act. And in your testimony you mentioned that ten mandates will be addressed as part of the current rulemaking activities, but the remaining six are tied to reports and information collections. Why are several of these still in the early information collection phase?</t>
   </si>
   <si>
@@ -859,9 +811,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. I do appreciate you being here today. I apologize. We had a meeting related to the coal industry and black lung. We had a round table with Chairman Bobby Scott and another committee was hosting and I have a district that has produced a lot of coal over the years, and so that was an important issue as well.    Now along those lines, we have a lot of pipelines being built now because of what I would see as the EPA's war on coal and the shutdown of like half of the industry in the last couple of years. The EPA is moving to regulate emissions of methane in the oil and gas industry by requiring oil and gas processing and transmission facilities to find and repair methane leaks. This was part of a speech given last week by the EPA director, administrator.    PHMSA has already proposed a leak detection rule and has worked with the industry to reduce leaks. In fact, I think overall, methane emissions are down about 13 percent in the last couple of years through various things that you all are doing. I have concerns about the EPA imposing new regulations on pipeline operations that PHMSA already regulates.    Has PHMSA provided any advice or guidance to the EPA in the development of their strategies and their proposals? Has EPA solicited any advice from you all? And does PHMSA foresee working with the EPA in the development of yet new regulations in this arena?    Because time is short, if you could answer all of that quick, I would appreciate it.</t>
   </si>
   <si>
@@ -910,9 +859,6 @@
     <t xml:space="preserve">    Mr. Whitfield. OK. I would appreciate that because I think that is important for us to know.    Madam Administrator, thank you very much for taking the time to be with us today. We appreciate your testimony and look forward to working with you as we move forward and that concludes the questions for you.    So at this time I would like to call up the second panel of witnesses. On the second panel of witnesses we have five panelists. And rather than introduce all of them right now, I am just going to introduce them one time and that is when I recognize them for their testimony.    Our first witness this morning is Mr. Norman Saari who is the Commissioner for the Michigan Public Service Commission. And he is testifying on behalf of the National Association of Regulatory Commissioners. So Mr. Saari, thanks very much for joining us and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Saari</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Saari. Chairman, ranking member, committee members, thank you for the opportunity to appear today. I want to personally thank you for the invitation to share some thoughts and the commitment from a state regulator's perspective of the importance of safe and efficient----</t>
   </si>
   <si>
@@ -925,9 +871,6 @@
     <t xml:space="preserve">    Mr. Whitfield. Mr. Saari, thank you very much.    Our next witness is Mr. Ron Bradley who is vice president of Gas Operations at PECO Energy. And you are testifying on behalf of the American Gas Association. Welcome, and you are recognized for 5 minutes, Mr. Bradley.</t>
   </si>
   <si>
-    <t>Bradley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bradley. Good morning, Chairman Whitfield and members of the committee. My name is Ron Bradley, and I serve as vice president of Gas Operations at PECO, which safely provides reliable electric and natural gas service to approximately two million customers in southeastern Pennsylvania.    PECO is part of the Exelon family of companies. Exelon is the nation's largest competitive energy provider serving more than eight million electric and natural gas customers in Illinois, Maryland, and Pennsylvania. Today, I am testifying on behalf of the American Gas Association which represents more than 200 local distribution companies, also known as LDCs.    AGA members' companies operate 2.5 million miles of underground pipeline safely delivering clean, affordable natural gas to more than 71 million customers. LDCs provide the last critical link in the energy delivery chain connecting interstate pipelines directly to homes and businesses. Our focus every day is ensuring that we keep the gas flowing safely and reliably.    As part of an agreement with the Federal Government, most states assume primary responsibility for the safety and regulation of LDCs, as well as intrastate transmission pipelines. Many states adopt standards that exceed federal requirements. Additionally, our companies are in close contact with state pipeline safety inspectors which permit a greater number of inspections to occur than is required by federal law.    In addition to a culture of compliance, LDCs embrace the culture of proactive, collaborative engagement. Each company employs trained safety professionals, provides safety training, conducts rigorous system inspections, testing, maintenance and repair, and replacement programs, and educates the public on natural gas safety. AGA's commitment to enhancing safety adopted in 2011 provides a summary of these commitments beyond federal regulation.    The commitment to enhancing safety has been modified several times to address new issues that have been identified and was recently modified to include actions to improve the safety of underground storage operations. The AGA has also developed numerous pipeline safety initiatives focused on raising the bar on safety including peer-to-peer reviews and best practice forums that share best practices and lessons learned throughout the industry. Each year, LDCs spent approximately $22 billion on safety. Approximately half of that on our voluntary actions. This number continues to escalate as work commences on newly approved accelerated pipeline replacement programs.    Now turning to a review of the legislation. The Pipeline Inspection, Protection, Enforcement and Safety Act of 2006 and the Pipeline Safety, Regulatory Creation, and Job Creation Act of 2011 created new programs to improve the safety of the industry. AGA member companies have implemented aspects of these programs either voluntarily or through DOT regulation. However, many of these programs are in their infancy in terms of implementation, and we encourage Congress to allow these programs to develop and mature in order to realize their full impact.    In the case of the unanimously passed 2011 Act, several regulations have yet to be promulgated or finalized. The progress that is being made is very important that the focus be on finishing the outstanding work. We commend the committee for emphasizing this in its initial draft. Layering new laws and regulation on to companies before existing regulations have been finalized and provided time to succeed creates uncertainty that undermines our shared safety goals.    While we appreciate the committee's efforts to put forward a bipartisan bill, we are supportive of most of the text. We are very concerned that Section 15 of the draft bill would allow a person to bring a civil action in a District Court of the United States for injunction against PHMSA for failure to perform any nondiscretionary duty, even if PHMSA was engaged in enforcing its mandatory obligations under the law. This would have a deleterious effect of undermining and thus weakening the federal regulatory oversight this committee seeks to enhance and could cause market uncertainty.    Moreover, to the extent that PHMSA would have to dedicate resources and time to litigation or complying with a court order, it could significantly diminish the agency's ability to work on other congressional priorities, thus negatively impacting pipeline safety.    The creation of such a legal remedy could be used by individuals, however well intentioned, in a way that would be counter to the best interests of the nation, individual states, industry, and ultimately consumers while not necessarily enhancing safety. Thus, we respectfully urge the removal of Section 15 of the bill. The industry is already experiencing significant uncertainty regarding PHMSA's implementation of outstanding mandates in the 2011 bill.    Regarding replacement of cast iron mains, a focus of the 2011 pipeline safety reauthorization. The quantity of these mains continues to steadily decline. As of today, overall cast iron mains makes up less than two percent of total mileage. Natural gas utilities are working with legislators and regulators to accelerate the replacement of these pipelines. To date, 39 states and the District of Columbia have adopted specific rate mechanisms that facilitate accelerated replacement of pipelines that are primary candidates for system enhancement.    In addition to what I have highlighted, my written testimony provides updates on the industry's efforts with regard to incident notification, data collection, and information sharing, and research and development. I am pleased to answer questions on these topics or any other topics that you have.</t>
   </si>
   <si>
@@ -937,25 +880,16 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Black. Thank you, chairman, ranking member. The Association of Oil Pipelines who deliver crude oil, refined products like gasoline, diesel fuel, and jet fuel and natural gas liquids such as propane. As the chairman indicated, I am also testifying on behalf of the American Petroleum Institute.    Our U.S. pipelines safely deliver more than 16.2 billion barrels of crude oil and energy products a year. Pipelines play a critical role in delivering energy to American workers and families. Americans use the energy our pipelines deliver in their cars and trucks to commute to work or drive on the job, provide rural heating and crop drying and support good paying manufacturing jobs. The average barrel of crude oil or petroleum products reaches its destination safely, by pipeline, greater than 99.999 percent of the time.    Addressing Mr. McKinley's question earlier, according to PHMSA date, significant liquids pipeline incidents that could affect high-consequence areas are down 8 percent over the last 5 years. Significant incidents per mile that are over 50 barrels in size are down 19 percent over the last 5 years. But even with these positive pipeline safety performance numbers, the member companies of AOPL and API are constantly working to improve pipeline safety further.    Last year, operators completed development of a number of industry-wide recommended practices and technical reports to improve our ability to detect pipeline cracking, integrate safety data, manage safety efforts holistically, manage leak detection programs, and better plan for and respond to pipeline emergencies.    This year, we turn to implementation of these safety recommendations industry wide. A prime example is our effort to encourage and assist implementation of API Recommended Practice 1173 for pipeline safety management systems. Recommended by the NTSB and developed in conjunction with PHMSA and state pipeline regulators, this tool is helping pipeline operators comprehensively manage all the safety efforts underway across the company. The aviation, nuclear power, and chemical manufacturing industries have benefitted from safety management systems. Now more pipeline operators are benefitting, too.    This year, pipeline operators will also complete expansion of industry wide recommended practice on river crossings, develop a new one for construction quality management, and update industry-wide recommendations for pipeline integrity program management. This last safety improvement action brings us to last summer's pipeline release near Refugio, California. We echoed Transportation Secretary Foxx calling the preliminary instant report from PHMSA ``an important step forward that will help us learn what went wrong so that everyone involved can take action and ensure that it does not happen again.'' Our members are committed to doing just that.    PHMSA's preliminary factual findings could be described as the what of the incident. We expect PHMSA's final report later this year will contain root cause analysis and recommendations describing the still unknown how and why this incident occurred. At a minimum, we know there is opportunity for further industry-wide discussion and perhaps guidance for those operators that use the specific type of pipe involved in that incident, insulated pipe transporting heated crude. As part of our update of this industry-wide integrity management guidance, we will ensure learnings from industry-wide review and PHMSA incident report recommendations are reviewed and incorporated where appropriate. The effort should be finished later this year, far more expeditiously than could occur through an agency notice and comment rulemaking process.    Turning to the next reauthorization, there is still much left for PHMSA to do from the 2011 law. PHMSA is working to finalize a broad liquids pipeline rulemaking as the administrator said, and may propose a rulemaking on valves soon.    We commend Congress for its recent oversight in PHMSA, which has resulted in the administration issuing several rulemaking proposals and promising additional proposals and we encourage your ongoing oversight. Pipeline operators have not stood by and instead have advanced safety initiatives on inspection technology, cracking, data integration, safety management, leak detection, and emergency response. With the numerous recent industry initiatives addressing current pipeline safety topics, and additional PHMSA regulatory actions still to come, we encourage Congress to reauthorize the pipeline safety program soon without adding significant new provisions.    Upon a brief review of the committee's discussion draft, AOPL and API would find it difficult to support the draft with the inclusion of Section 15. Private mandamus civil actions to compel agencies to perform certain duties have earned the moniker ``sue and settle'' because of their abuse at agencies such as EPA. A Chamber of Commerce report identified 60 cases of ``sue and settle'' lawsuits from 2009 to 2012 resulting in 100 new EPA regulations costing from tens of millions to billions of dollars each. ``Sue and settle'' circumvents public participation, dilutes congressional oversight, bypasses standard administration review and analysis, and it limits agency transparency.    In January, the House expressed its concern with ``sue and settle'' abuse by passing H.R. 712, reforming these processes in legislation that sadly appears unlikely to become public law. We urge that Section 15 be removed from the draft.    Thank you for inviting me here today and I look forward to answering any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Black. Our next witness is Mr. Donald Santa who is president and CEO of the Interstate Natural Gas Association of America.    Welcome back, Mr. Santa, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Santa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Santa. Good morning and thank you, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee. My name is Donald Santa, and I am president and CEO of the Interstate Natural Gas Association of America, or INGAA. INGAA represents interstate natural gas transmission pipeline operators in the U.S. and Canada. The pipeline systems operated by INGAA's 24 member companies are analogous to the interstate highway system, transporting natural gas across state and regional boundaries.    INGAA testified before this subcommittee last July regarding pipeline safety and reauthorization of the Pipeline Safety Act. In that testimony, I outlined INGAA's safety commitments, undertaken in 2011, and the most recent amendments to the law that specifically affect natural gas transmission safety programs. I direct my testimony today to the specifics of the draft reauthorization bill now before the subcommittee.    INGAA has consistently advocated three goals in connection with the pending reauthorization of the Pipeline Safety Act. These goals are first, establish authorized funding levels for the pipeline safety programs at PHMSA for the next 4 fiscal years; second, continue to focus PHMSA rulemaking resources on the completion of the remaining mandates from the 2011 reauthorization, with one exception below; and third, that exception, create federal minimum safety standards and regulations for underground natural gas storage facilities.    The discussion draft meets these three goals. There is also very similar to the bill, S.2276, approved last December by the Senate Committee on Commerce, Science and Transportation. That legislation is now pending before the full Senate and may be approved as early as this week. We appreciate that this subcommittee's discussion draft parallels the Senate bill in most respects because this will make it far easier to conference the two bills.    A few quick points. First, the fiscal years covered by this authorization. The Senate legislation covers fiscal years 2016 through 2019. This technically would be a 4-year authorization. As a practical matter, fiscal year 2016 has already been appropriated, and by the time this legislation is enacted, the current fiscal year will be close to an end. For this truly to be a 4-year authorization, INGAA suggests beginning with the fiscal year 2017 authorization or in the alternative, making the authorization effective through fiscal year 2020.    Second, we agree with the manner in which the underground natural gas storage section was drafted and especially the clarification that PHMSA may delegate to a state the authority to regulate intrastate storage facilities. This provision has our support.    Discussion draft, however, differs from the Senate bill in one important respect. Namely, the draft includes a provision that would allow an individual petition a federal district court to enjoin PHMSA in connection with that agency's alleged failure to act. As explained further in my written testimony, INGAA believes that this provision is ill-advised. It would allow the priorities of individual parties and the judgment of a federal district court judge to supplant the pipeline safety priorities and the allocation of agency resources established by PHMSA pursuant to the guidance provided by Congress. INGAA would seriously consider opposing the Pipeline Safety Bill if this provision were included.    My written testimony includes comments on several other provisions in the draft bill which in the interest of time I will omit for my oral statement.    Mr. Chairman, thank you for the opportunity to provide INGAA's views on the discussion draft. I would be happy to answer your questions at the appropriate time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Santa, and our next witness is Mr. Carl Weimer.    Welcome back, Mr. Weimer, and he is testifying on behalf of the Pipeline Safety Trust where he is the executive director, and you are recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Weimer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weimer. Thank you. Good afternoon, Chairman Whitfield, Ranking Member Rush, and members of the committee. Thank you for inviting me to speak today on the important subject of pipeline safety.    The Pipeline Safety Trust came into being after a pipeline disaster that occurred nearly 17 years ago. At that time, we were asked by the federal courts to create a watchdog organization over both the industry and the regulators. We have been trying to fulfill that vision ever since, but the increase in the number of significant incidents over the past decade driven primarily by releases from liquid pipelines from causes well within pipeline operators' control, makes us sometimes question whether our message is being heard.    Today, I would like to dedicate my testimony to the memory of Peter Hayes who I met shortly after a Chevron pipeline dumped oil into Red Butte Creek in Salt Lake City. Mr. Hayes, a school teacher, was raising his family in a home that set on the banks of Red Butte Creek and he was extremely concerned about the possible long term health effects to the people in that area who were not evacuated immediately and experienced many different health symptoms associated with exposure to crude oil. He pushed hard for better emergency response and for someone to follow up with a study to determine whether people so exposed would experience any long term health problems. No one ever did such a study and in a tragic twist of fate, Mr. Hayes came down with a rare lung disease that may, in part, be caused by such exposure to environmental pollutants. He died last year.    The need for studies on the health effects of exposure to oil spills has long been a void in our national pipeline safety system and was recently again called for by a National Academy of Sciences panel. Often in these hearings the focus is on how PHMSA has failed to implement various mandates and moved too slowly on regulatory initiatives. While we agree that those things are all important and fair game at such hearings, today we would like to focus our testimony on how the pipeline safety system that Congress has created also has much to do with PHMSA's inability to get things done.    PHMSA can only implement rules that Congress authorizes them to enact and there are many things in the statutes that could be changed to remove unnecessary barriers to more effective and efficient pipeline safety. The pipeline safety statutes are the responsibility of Congress and today we will speak to issues where Congress needs to act if there is a real desire to improve pipeline safety    Some of the things that Congress could change fairly easily would be to provide PHMSA with emergency order authority like other transportation agencies have. This would allow PHMSA to quickly correct dangerous industry-wide problems such as a lack of minimum rules for underground gas storage or the lack of valid verification of maximum allowable operating pressures. At the same time, by eliminating the unique and duplicative cost benefit requirement in the program statute, normal rulemakings could proceed at more than the current glacial speed.    Congress also needs to harmonize the criminal penalty section of PHMSA's statutes so in the rare case when pipeline companies willfully or recklessly cause harm to people or the environment, they can be prosecuted as is necessary. And Congress should also add a strong mandamus clause as suggested in this committee's working draft bill to allow the federal courts to force PHMSA to fulfill their duties when it is the agency that is dragging its feet.    As I mentioned earlier, the National Academy of Sciences recently completed a congressionally-mandated study that showed there were a number of serious issues with the way that PHMSA oversees spill response planning and the contents of those plans. We hope you will rapidly move to ensure that PHMSA is reviewing these plans not only for completeness, but also for efficacy as other agencies do and require companies to provide clear information so first responders know what they are up against.    We also ask that you honor the memory of Peter Hayes and request an additional study by the National Academy of Sciences to help alleviate the lack of information about how to better protect people from the short and long term health effects of when pipelines fail.    Finally, we have a few concerns with the language included in various reauthorization bills and hope you can address these concerns in your own bill. In particular, we think the wording in the statutory preference section of your draft bill may slow needed rules. We also think the language regarding underground gas storage needs to be clarified to ensure an open rulemaking process happens as soon as possible and that whatever is passed allows states to set stricter standards for facilities within their borders.    And finally, we think the language in the Senate bill regarding small LNG facilities pushes PHMSA too much to rely on industry-developed standards and hard to enforce risk based systems.    I see my time is about up, so I thank you for this opportunity to testify today and I would be glad to answer any questions now or in the future.</t>
@@ -1654,11 +1588,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1678,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1706,11 +1636,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1730,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1758,11 +1684,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1782,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1810,11 +1732,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1834,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1862,11 +1780,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1888,11 +1804,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1914,11 +1828,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1940,11 +1852,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1966,11 +1876,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1992,11 +1900,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2018,11 +1924,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2044,11 +1948,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2070,11 +1972,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2096,11 +1996,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2122,11 +2020,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2148,11 +2044,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2174,11 +2068,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2200,11 +2092,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2226,11 +2116,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2252,11 +2140,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2278,11 +2164,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2304,11 +2188,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2330,11 +2212,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2356,11 +2236,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2382,11 +2260,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2408,11 +2284,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2432,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2460,11 +2332,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2484,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2512,11 +2380,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2536,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2564,11 +2428,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2588,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2616,11 +2476,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2640,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2668,11 +2524,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2692,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2720,11 +2572,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2744,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2772,11 +2620,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2796,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2824,11 +2668,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2848,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2876,11 +2716,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2900,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>65</v>
-      </c>
-      <c r="H50" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2928,11 +2764,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2952,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2980,11 +2812,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3004,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3032,11 +2860,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3056,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3084,11 +2908,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3108,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3136,11 +2956,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3160,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3188,11 +3004,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3212,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3240,11 +3052,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3264,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3292,11 +3100,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3316,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3344,11 +3148,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3368,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3396,11 +3196,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3420,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3448,11 +3244,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3472,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>87</v>
-      </c>
-      <c r="G72" t="s">
-        <v>88</v>
-      </c>
-      <c r="H72" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3500,11 +3292,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3524,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3552,11 +3340,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3576,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3604,11 +3388,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3628,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G78" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3656,11 +3436,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3680,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3708,11 +3484,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3732,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3760,11 +3532,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3784,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3810,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3838,11 +3604,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3862,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3890,11 +3652,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3914,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3942,11 +3700,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3966,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3994,11 +3748,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4018,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4046,11 +3796,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4070,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4098,11 +3844,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>30</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4122,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4150,11 +3892,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>30</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4174,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4202,11 +3940,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>30</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4226,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4254,11 +3988,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>30</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4278,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G103" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>119</v>
-      </c>
-      <c r="H103" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4306,11 +4036,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>30</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4330,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4358,11 +4084,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4382,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4410,11 +4132,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4434,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
-      </c>
-      <c r="G109" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4462,11 +4180,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>30</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4486,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4514,11 +4228,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>30</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4538,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
-      </c>
-      <c r="G113" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4566,11 +4276,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>30</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4590,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
+        <v>123</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>132</v>
-      </c>
-      <c r="G115" t="s">
-        <v>133</v>
-      </c>
-      <c r="H115" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4618,11 +4324,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4642,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>144</v>
-      </c>
-      <c r="G117" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4670,11 +4372,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>30</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4694,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
-      </c>
-      <c r="G119" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4722,11 +4420,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4746,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
-      </c>
-      <c r="G121" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4774,11 +4468,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4798,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
-      </c>
-      <c r="G123" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4826,11 +4516,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>30</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4850,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
-      </c>
-      <c r="G125" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4878,11 +4564,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>30</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4902,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>144</v>
-      </c>
-      <c r="G127" t="s">
+        <v>134</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
         <v>145</v>
-      </c>
-      <c r="H127" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4930,11 +4612,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4954,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
-      </c>
-      <c r="G129" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4982,11 +4660,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5006,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5034,11 +4708,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5058,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5086,11 +4756,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>30</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5110,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>144</v>
-      </c>
-      <c r="G135" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5138,11 +4804,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>30</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5162,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>144</v>
-      </c>
-      <c r="G137" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5190,11 +4852,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5214,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5242,11 +4900,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>30</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5266,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>144</v>
-      </c>
-      <c r="G141" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5294,11 +4948,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5318,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>144</v>
-      </c>
-      <c r="G143" t="s">
-        <v>145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5346,11 +4996,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5370,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>174</v>
-      </c>
-      <c r="G145" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5398,11 +5044,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5422,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>174</v>
-      </c>
-      <c r="G147" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5450,11 +5092,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>30</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5474,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>174</v>
-      </c>
-      <c r="G149" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5502,11 +5140,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>30</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5526,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>174</v>
-      </c>
-      <c r="G151" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5554,11 +5188,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>30</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5578,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
-      </c>
-      <c r="G153" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5606,11 +5236,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>30</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5630,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
+        <v>163</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
         <v>174</v>
-      </c>
-      <c r="G155" t="s">
-        <v>175</v>
-      </c>
-      <c r="H155" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5658,11 +5284,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>30</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5682,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G157" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5710,11 +5332,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>30</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5734,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>174</v>
-      </c>
-      <c r="G159" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5762,11 +5380,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>30</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5786,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>174</v>
-      </c>
-      <c r="G161" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5814,11 +5428,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>30</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5838,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>174</v>
-      </c>
-      <c r="G163" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5866,11 +5476,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>30</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5890,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>174</v>
-      </c>
-      <c r="G165" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5918,11 +5524,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5942,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>198</v>
-      </c>
-      <c r="G167" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5970,11 +5572,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>30</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5994,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>198</v>
-      </c>
-      <c r="G169" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6022,11 +5620,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>30</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6046,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>198</v>
-      </c>
-      <c r="G171" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6074,11 +5668,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>30</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6098,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>198</v>
-      </c>
-      <c r="G173" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6126,11 +5716,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>30</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6150,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>198</v>
-      </c>
-      <c r="G175" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6178,11 +5764,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>30</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6202,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
-      </c>
-      <c r="G177" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6230,11 +5812,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>30</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6254,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>198</v>
-      </c>
-      <c r="G179" t="s">
+        <v>186</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
         <v>199</v>
-      </c>
-      <c r="H179" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6282,11 +5860,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>30</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6306,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>198</v>
-      </c>
-      <c r="G181" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6334,11 +5908,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>30</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6358,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>198</v>
-      </c>
-      <c r="G183" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6386,11 +5956,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>30</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6410,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>198</v>
-      </c>
-      <c r="G185" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6438,11 +6004,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6462,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>220</v>
-      </c>
-      <c r="G187" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6490,11 +6052,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>30</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6514,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>220</v>
-      </c>
-      <c r="G189" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6542,11 +6100,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>30</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6566,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>220</v>
-      </c>
-      <c r="G191" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6594,11 +6148,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>30</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6618,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>220</v>
-      </c>
-      <c r="G193" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6646,11 +6196,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>30</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6670,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>220</v>
-      </c>
-      <c r="G195" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6698,11 +6244,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>30</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6722,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>220</v>
-      </c>
-      <c r="G197" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6750,11 +6292,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>30</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6774,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
+        <v>207</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
         <v>220</v>
-      </c>
-      <c r="G199" t="s">
-        <v>221</v>
-      </c>
-      <c r="H199" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6802,11 +6340,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>30</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6826,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>220</v>
-      </c>
-      <c r="G201" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6854,11 +6388,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>30</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6878,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>220</v>
-      </c>
-      <c r="G203" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6906,11 +6436,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>30</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6930,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>220</v>
-      </c>
-      <c r="G205" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6958,11 +6484,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>30</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6982,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>220</v>
-      </c>
-      <c r="G207" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7010,11 +6532,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>30</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7034,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>220</v>
-      </c>
-      <c r="G209" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7062,11 +6580,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>30</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7086,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>220</v>
-      </c>
-      <c r="G211" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7114,11 +6628,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7138,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>248</v>
-      </c>
-      <c r="G213" t="s">
-        <v>249</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7166,11 +6676,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>30</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7190,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>248</v>
-      </c>
-      <c r="G215" t="s">
-        <v>249</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7218,11 +6724,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>30</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7242,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>248</v>
-      </c>
-      <c r="G217" t="s">
-        <v>249</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7270,11 +6772,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>30</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7294,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>248</v>
-      </c>
-      <c r="G219" t="s">
-        <v>249</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7322,11 +6820,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>30</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7346,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>248</v>
-      </c>
-      <c r="G221" t="s">
-        <v>249</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7374,11 +6868,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>30</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7398,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>248</v>
-      </c>
-      <c r="G223" t="s">
-        <v>249</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7426,11 +6916,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>30</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7450,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>248</v>
-      </c>
-      <c r="G225" t="s">
-        <v>249</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7478,11 +6964,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7502,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>263</v>
-      </c>
-      <c r="G227" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7530,11 +7012,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>30</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7554,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>263</v>
-      </c>
-      <c r="G229" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7582,11 +7060,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>30</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7606,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>263</v>
-      </c>
-      <c r="G231" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7634,11 +7108,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>30</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7658,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>263</v>
-      </c>
-      <c r="G233" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7686,11 +7156,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>30</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7710,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>263</v>
-      </c>
-      <c r="G235" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7738,11 +7204,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>30</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7762,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>263</v>
-      </c>
-      <c r="G237" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7790,11 +7252,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>30</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7814,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>263</v>
-      </c>
-      <c r="G239" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7842,11 +7300,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>30</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7866,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>263</v>
-      </c>
-      <c r="G241" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7894,11 +7348,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7918,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>280</v>
-      </c>
-      <c r="G243" t="s">
-        <v>281</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7946,11 +7396,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>30</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7970,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>280</v>
-      </c>
-      <c r="G245" t="s">
-        <v>281</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7998,11 +7444,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>30</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8022,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>280</v>
-      </c>
-      <c r="G247" t="s">
-        <v>281</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8050,11 +7492,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>30</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8074,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>280</v>
-      </c>
-      <c r="G249" t="s">
-        <v>281</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8102,11 +7540,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>30</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8126,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>280</v>
-      </c>
-      <c r="G251" t="s">
-        <v>281</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8154,11 +7588,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>30</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8178,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>280</v>
-      </c>
-      <c r="G253" t="s">
-        <v>281</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8206,11 +7636,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8232,11 +7660,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>30</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8258,11 +7684,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8284,11 +7708,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>30</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8310,11 +7732,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8336,11 +7756,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>298</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8362,11 +7780,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8388,11 +7804,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>298</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8414,11 +7828,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8440,11 +7852,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>303</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8466,11 +7876,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8490,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>306</v>
-      </c>
-      <c r="G265" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8518,11 +7924,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8544,11 +7948,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>310</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8570,11 +7972,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8596,11 +7996,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>313</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8622,11 +8020,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8646,13 +8042,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8672,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>306</v>
-      </c>
-      <c r="G272" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8698,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8724,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>306</v>
-      </c>
-      <c r="G274" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8750,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8776,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>306</v>
-      </c>
-      <c r="G276" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8802,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8830,11 +8212,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>310</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8854,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>14</v>
-      </c>
-      <c r="G279" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8882,11 +8260,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>310</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8906,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8932,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>306</v>
-      </c>
-      <c r="G282" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8958,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>14</v>
-      </c>
-      <c r="G283" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8986,11 +8356,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9012,11 +8380,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>313</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9038,11 +8404,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>313</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9064,11 +8428,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9090,11 +8452,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>313</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9116,11 +8476,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9142,11 +8500,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" t="s"/>
+      <c r="H290" t="s">
         <v>313</v>
-      </c>
-      <c r="H290" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9168,11 +8524,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9194,11 +8548,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>313</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9220,11 +8572,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9246,11 +8596,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>303</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9272,11 +8620,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9298,11 +8644,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>310</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9324,11 +8668,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9350,11 +8692,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>310</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9376,11 +8716,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9400,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>306</v>
-      </c>
-      <c r="G300" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9428,11 +8764,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9454,11 +8788,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>310</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9480,11 +8812,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9504,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>306</v>
-      </c>
-      <c r="G304" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9532,11 +8860,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9556,13 +8882,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>306</v>
-      </c>
-      <c r="G306" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9584,11 +8908,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9610,11 +8932,9 @@
       <c r="F308" t="s">
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>313</v>
-      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9636,11 +8956,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9662,11 +8980,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>313</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9688,11 +9004,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9712,13 +9026,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>64</v>
-      </c>
-      <c r="G312" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9738,13 +9050,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>64</v>
-      </c>
-      <c r="G313" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9764,13 +9074,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>64</v>
-      </c>
-      <c r="G314" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9792,11 +9100,9 @@
       <c r="F315" t="s">
         <v>11</v>
       </c>
-      <c r="G315" t="s">
-        <v>313</v>
-      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9816,13 +9122,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>64</v>
-      </c>
-      <c r="G316" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9844,11 +9148,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>313</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9868,13 +9170,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>64</v>
-      </c>
-      <c r="G318" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9896,11 +9196,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>313</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9920,13 +9218,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>64</v>
-      </c>
-      <c r="G320" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9948,11 +9244,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>310</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9972,13 +9266,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>64</v>
-      </c>
-      <c r="G322" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9998,13 +9290,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>306</v>
-      </c>
-      <c r="G323" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10024,13 +9314,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>64</v>
-      </c>
-      <c r="G324" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10050,13 +9338,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>306</v>
-      </c>
-      <c r="G325" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10076,13 +9362,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>64</v>
-      </c>
-      <c r="G326" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10102,13 +9386,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>306</v>
-      </c>
-      <c r="G327" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10128,13 +9410,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>64</v>
-      </c>
-      <c r="G328" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10154,13 +9434,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>306</v>
-      </c>
-      <c r="G329" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10180,13 +9458,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>64</v>
-      </c>
-      <c r="G330" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10208,11 +9484,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10232,13 +9506,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>87</v>
-      </c>
-      <c r="G332" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10260,11 +9532,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>310</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10284,13 +9554,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>87</v>
-      </c>
-      <c r="G334" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10312,11 +9580,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>310</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10336,13 +9602,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>87</v>
-      </c>
-      <c r="G336" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10362,13 +9626,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>306</v>
-      </c>
-      <c r="G337" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10388,13 +9650,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>87</v>
-      </c>
-      <c r="G338" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10414,13 +9674,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>306</v>
-      </c>
-      <c r="G339" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10440,13 +9698,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>87</v>
-      </c>
-      <c r="G340" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10466,13 +9722,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>306</v>
-      </c>
-      <c r="G341" t="s">
-        <v>307</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10492,13 +9746,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>87</v>
-      </c>
-      <c r="G342" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10520,11 +9772,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>12</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10544,13 +9794,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>26</v>
-      </c>
-      <c r="G344" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10572,11 +9820,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>313</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10596,13 +9842,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>26</v>
-      </c>
-      <c r="G346" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10624,11 +9868,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>313</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10648,13 +9890,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>26</v>
-      </c>
-      <c r="G348" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10676,11 +9916,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>313</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10700,13 +9938,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>26</v>
-      </c>
-      <c r="G350" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10728,11 +9964,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>313</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10752,13 +9986,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>26</v>
-      </c>
-      <c r="G352" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10780,11 +10012,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>313</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10804,13 +10034,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>26</v>
-      </c>
-      <c r="G354" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10832,11 +10060,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10856,13 +10082,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>18</v>
-      </c>
-      <c r="G356" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10884,11 +10108,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>313</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10908,13 +10130,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>18</v>
-      </c>
-      <c r="G358" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10936,11 +10156,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>313</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10960,13 +10178,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>18</v>
-      </c>
-      <c r="G360" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10988,11 +10204,9 @@
       <c r="F361" t="s">
         <v>11</v>
       </c>
-      <c r="G361" t="s">
-        <v>313</v>
-      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11012,13 +10226,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>18</v>
-      </c>
-      <c r="G362" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11040,11 +10252,9 @@
       <c r="F363" t="s">
         <v>11</v>
       </c>
-      <c r="G363" t="s">
-        <v>313</v>
-      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11064,13 +10274,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>18</v>
-      </c>
-      <c r="G364" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11092,11 +10300,9 @@
       <c r="F365" t="s">
         <v>11</v>
       </c>
-      <c r="G365" t="s">
-        <v>313</v>
-      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11116,13 +10322,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>18</v>
-      </c>
-      <c r="G366" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11144,11 +10348,9 @@
       <c r="F367" t="s">
         <v>11</v>
       </c>
-      <c r="G367" t="s">
-        <v>313</v>
-      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11168,13 +10370,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>18</v>
-      </c>
-      <c r="G368" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11196,11 +10396,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>313</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11220,13 +10418,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>18</v>
-      </c>
-      <c r="G370" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11248,11 +10444,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
